--- a/Dispa-SET/Simulation/InputDispa-SET - FlowMaximum.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - FlowMaximum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>1</t>
   </si>
@@ -662,78 +662,6 @@
   </si>
   <si>
     <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
   </si>
   <si>
     <t>z1-&gt;z2</t>
@@ -1101,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IG8"/>
+  <dimension ref="A1:HI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
@@ -1115,12 +1043,12 @@
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:241">
+    <row r="1" spans="1:217">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:241">
+    <row r="2" spans="1:217">
       <c r="B2">
         <v>2012</v>
       </c>
@@ -1769,80 +1697,8 @@
       <c r="HI2">
         <v>2012</v>
       </c>
-      <c r="HJ2">
-        <v>2012</v>
-      </c>
-      <c r="HK2">
-        <v>2012</v>
-      </c>
-      <c r="HL2">
-        <v>2012</v>
-      </c>
-      <c r="HM2">
-        <v>2012</v>
-      </c>
-      <c r="HN2">
-        <v>2012</v>
-      </c>
-      <c r="HO2">
-        <v>2012</v>
-      </c>
-      <c r="HP2">
-        <v>2012</v>
-      </c>
-      <c r="HQ2">
-        <v>2012</v>
-      </c>
-      <c r="HR2">
-        <v>2012</v>
-      </c>
-      <c r="HS2">
-        <v>2012</v>
-      </c>
-      <c r="HT2">
-        <v>2012</v>
-      </c>
-      <c r="HU2">
-        <v>2012</v>
-      </c>
-      <c r="HV2">
-        <v>2012</v>
-      </c>
-      <c r="HW2">
-        <v>2012</v>
-      </c>
-      <c r="HX2">
-        <v>2012</v>
-      </c>
-      <c r="HY2">
-        <v>2012</v>
-      </c>
-      <c r="HZ2">
-        <v>2012</v>
-      </c>
-      <c r="IA2">
-        <v>2012</v>
-      </c>
-      <c r="IB2">
-        <v>2012</v>
-      </c>
-      <c r="IC2">
-        <v>2012</v>
-      </c>
-      <c r="ID2">
-        <v>2012</v>
-      </c>
-      <c r="IE2">
-        <v>2012</v>
-      </c>
-      <c r="IF2">
-        <v>2012</v>
-      </c>
-      <c r="IG2">
-        <v>2012</v>
-      </c>
     </row>
-    <row r="3" spans="1:241">
+    <row r="3" spans="1:217">
       <c r="B3">
         <v>10</v>
       </c>
@@ -2491,80 +2347,8 @@
       <c r="HI3">
         <v>10</v>
       </c>
-      <c r="HJ3">
-        <v>10</v>
-      </c>
-      <c r="HK3">
-        <v>10</v>
-      </c>
-      <c r="HL3">
-        <v>10</v>
-      </c>
-      <c r="HM3">
-        <v>10</v>
-      </c>
-      <c r="HN3">
-        <v>10</v>
-      </c>
-      <c r="HO3">
-        <v>10</v>
-      </c>
-      <c r="HP3">
-        <v>10</v>
-      </c>
-      <c r="HQ3">
-        <v>10</v>
-      </c>
-      <c r="HR3">
-        <v>10</v>
-      </c>
-      <c r="HS3">
-        <v>10</v>
-      </c>
-      <c r="HT3">
-        <v>10</v>
-      </c>
-      <c r="HU3">
-        <v>10</v>
-      </c>
-      <c r="HV3">
-        <v>10</v>
-      </c>
-      <c r="HW3">
-        <v>10</v>
-      </c>
-      <c r="HX3">
-        <v>10</v>
-      </c>
-      <c r="HY3">
-        <v>10</v>
-      </c>
-      <c r="HZ3">
-        <v>10</v>
-      </c>
-      <c r="IA3">
-        <v>10</v>
-      </c>
-      <c r="IB3">
-        <v>10</v>
-      </c>
-      <c r="IC3">
-        <v>10</v>
-      </c>
-      <c r="ID3">
-        <v>10</v>
-      </c>
-      <c r="IE3">
-        <v>10</v>
-      </c>
-      <c r="IF3">
-        <v>10</v>
-      </c>
-      <c r="IG3">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:241">
+    <row r="4" spans="1:217">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3213,80 +2997,8 @@
       <c r="HI4">
         <v>9</v>
       </c>
-      <c r="HJ4">
-        <v>10</v>
-      </c>
-      <c r="HK4">
-        <v>10</v>
-      </c>
-      <c r="HL4">
-        <v>10</v>
-      </c>
-      <c r="HM4">
-        <v>10</v>
-      </c>
-      <c r="HN4">
-        <v>10</v>
-      </c>
-      <c r="HO4">
-        <v>10</v>
-      </c>
-      <c r="HP4">
-        <v>10</v>
-      </c>
-      <c r="HQ4">
-        <v>10</v>
-      </c>
-      <c r="HR4">
-        <v>10</v>
-      </c>
-      <c r="HS4">
-        <v>10</v>
-      </c>
-      <c r="HT4">
-        <v>10</v>
-      </c>
-      <c r="HU4">
-        <v>10</v>
-      </c>
-      <c r="HV4">
-        <v>10</v>
-      </c>
-      <c r="HW4">
-        <v>10</v>
-      </c>
-      <c r="HX4">
-        <v>10</v>
-      </c>
-      <c r="HY4">
-        <v>10</v>
-      </c>
-      <c r="HZ4">
-        <v>10</v>
-      </c>
-      <c r="IA4">
-        <v>10</v>
-      </c>
-      <c r="IB4">
-        <v>10</v>
-      </c>
-      <c r="IC4">
-        <v>10</v>
-      </c>
-      <c r="ID4">
-        <v>10</v>
-      </c>
-      <c r="IE4">
-        <v>10</v>
-      </c>
-      <c r="IF4">
-        <v>10</v>
-      </c>
-      <c r="IG4">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:241">
+    <row r="5" spans="1:217">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3935,80 +3647,8 @@
       <c r="HI5">
         <v>24</v>
       </c>
-      <c r="HJ5">
-        <v>1</v>
-      </c>
-      <c r="HK5">
-        <v>2</v>
-      </c>
-      <c r="HL5">
-        <v>3</v>
-      </c>
-      <c r="HM5">
-        <v>4</v>
-      </c>
-      <c r="HN5">
-        <v>5</v>
-      </c>
-      <c r="HO5">
-        <v>6</v>
-      </c>
-      <c r="HP5">
-        <v>7</v>
-      </c>
-      <c r="HQ5">
-        <v>8</v>
-      </c>
-      <c r="HR5">
-        <v>9</v>
-      </c>
-      <c r="HS5">
-        <v>10</v>
-      </c>
-      <c r="HT5">
-        <v>11</v>
-      </c>
-      <c r="HU5">
-        <v>12</v>
-      </c>
-      <c r="HV5">
-        <v>13</v>
-      </c>
-      <c r="HW5">
-        <v>14</v>
-      </c>
-      <c r="HX5">
-        <v>15</v>
-      </c>
-      <c r="HY5">
-        <v>16</v>
-      </c>
-      <c r="HZ5">
-        <v>17</v>
-      </c>
-      <c r="IA5">
-        <v>18</v>
-      </c>
-      <c r="IB5">
-        <v>19</v>
-      </c>
-      <c r="IC5">
-        <v>20</v>
-      </c>
-      <c r="ID5">
-        <v>21</v>
-      </c>
-      <c r="IE5">
-        <v>22</v>
-      </c>
-      <c r="IF5">
-        <v>23</v>
-      </c>
-      <c r="IG5">
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:241">
+    <row r="6" spans="1:217">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -4657,808 +4297,664 @@
       <c r="HI6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="HJ6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:217">
+      <c r="A7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="HK6" s="1" t="s">
+      <c r="B7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="T7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="U7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="V7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="W7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="X7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CB7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CC7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CD7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CE7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CF7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CG7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CH7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CI7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CJ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CK7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CL7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CM7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CN7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CO7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CP7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CQ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CR7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CS7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CT7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CU7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CV7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CW7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CX7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CY7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="CZ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DA7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DB7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DC7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DD7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DE7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DF7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DG7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DH7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DI7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DJ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DK7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DL7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DM7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DN7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DO7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DP7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DQ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DR7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DS7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DT7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DU7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DV7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DW7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DX7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DY7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="DZ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EA7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EB7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EC7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="ED7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EE7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EF7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EG7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EH7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EI7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EJ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EK7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EL7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EM7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EN7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EO7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EP7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EQ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="ER7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="ES7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="ET7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EU7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EV7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EW7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EX7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EY7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="EZ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FA7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FB7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FC7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FD7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FE7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FF7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FG7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FH7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FI7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FJ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FK7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FL7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FM7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FN7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FO7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FP7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FQ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FR7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FS7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FT7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FU7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FV7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FW7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FX7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FY7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="FZ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GA7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GB7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GC7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GD7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GE7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GF7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GG7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GH7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GI7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GJ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GK7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GL7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GM7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GN7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GO7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GP7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GQ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GR7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GS7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GT7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GU7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GV7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GW7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GX7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GY7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="GZ7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="HA7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="HB7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="HC7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="HD7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="HE7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="HF7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="HG7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="HH7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="HI7" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:217">
+      <c r="A8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="HL6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HY6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HZ6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IA6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IB6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IC6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="ID6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IE6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IF6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IG6" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:241">
-      <c r="A7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="R7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="S7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="T7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="U7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="V7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="W7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="X7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ED7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ER7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ES7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ET7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ID7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IG7" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:241">
-      <c r="A8" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="B8" s="2">
         <v>2000</v>
       </c>
@@ -6105,78 +5601,6 @@
         <v>2000</v>
       </c>
       <c r="HI8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HJ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HK8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HL8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HM8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HN8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HO8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HP8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HQ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HR8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HS8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HT8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HU8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HV8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HW8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HX8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HY8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HZ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IA8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IB8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IC8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ID8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IE8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IF8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="IG8" s="2">
         <v>2000</v>
       </c>
     </row>

--- a/Dispa-SET/Simulation/InputDispa-SET - FlowMaximum.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - FlowMaximum.xlsx
@@ -729,12 +729,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4302,652 +4301,652 @@
       <c r="A7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="P7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="R7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="S7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="T7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="U7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="V7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="W7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="X7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ED7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ER7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ES7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ET7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GI7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GJ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GK7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GL7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GM7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GN7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GO7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GP7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GQ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GR7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GS7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GT7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GU7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GV7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GW7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GX7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GY7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GZ7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HA7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HB7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HC7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HD7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HE7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HF7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HG7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HH7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HI7" s="2">
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7">
+        <v>2000</v>
+      </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7">
+        <v>2000</v>
+      </c>
+      <c r="K7">
+        <v>2000</v>
+      </c>
+      <c r="L7">
+        <v>2000</v>
+      </c>
+      <c r="M7">
+        <v>2000</v>
+      </c>
+      <c r="N7">
+        <v>2000</v>
+      </c>
+      <c r="O7">
+        <v>2000</v>
+      </c>
+      <c r="P7">
+        <v>2000</v>
+      </c>
+      <c r="Q7">
+        <v>2000</v>
+      </c>
+      <c r="R7">
+        <v>2000</v>
+      </c>
+      <c r="S7">
+        <v>2000</v>
+      </c>
+      <c r="T7">
+        <v>2000</v>
+      </c>
+      <c r="U7">
+        <v>2000</v>
+      </c>
+      <c r="V7">
+        <v>2000</v>
+      </c>
+      <c r="W7">
+        <v>2000</v>
+      </c>
+      <c r="X7">
+        <v>2000</v>
+      </c>
+      <c r="Y7">
+        <v>2000</v>
+      </c>
+      <c r="Z7">
+        <v>2000</v>
+      </c>
+      <c r="AA7">
+        <v>2000</v>
+      </c>
+      <c r="AB7">
+        <v>2000</v>
+      </c>
+      <c r="AC7">
+        <v>2000</v>
+      </c>
+      <c r="AD7">
+        <v>2000</v>
+      </c>
+      <c r="AE7">
+        <v>2000</v>
+      </c>
+      <c r="AF7">
+        <v>2000</v>
+      </c>
+      <c r="AG7">
+        <v>2000</v>
+      </c>
+      <c r="AH7">
+        <v>2000</v>
+      </c>
+      <c r="AI7">
+        <v>2000</v>
+      </c>
+      <c r="AJ7">
+        <v>2000</v>
+      </c>
+      <c r="AK7">
+        <v>2000</v>
+      </c>
+      <c r="AL7">
+        <v>2000</v>
+      </c>
+      <c r="AM7">
+        <v>2000</v>
+      </c>
+      <c r="AN7">
+        <v>2000</v>
+      </c>
+      <c r="AO7">
+        <v>2000</v>
+      </c>
+      <c r="AP7">
+        <v>2000</v>
+      </c>
+      <c r="AQ7">
+        <v>2000</v>
+      </c>
+      <c r="AR7">
+        <v>2000</v>
+      </c>
+      <c r="AS7">
+        <v>2000</v>
+      </c>
+      <c r="AT7">
+        <v>2000</v>
+      </c>
+      <c r="AU7">
+        <v>2000</v>
+      </c>
+      <c r="AV7">
+        <v>2000</v>
+      </c>
+      <c r="AW7">
+        <v>2000</v>
+      </c>
+      <c r="AX7">
+        <v>2000</v>
+      </c>
+      <c r="AY7">
+        <v>2000</v>
+      </c>
+      <c r="AZ7">
+        <v>2000</v>
+      </c>
+      <c r="BA7">
+        <v>2000</v>
+      </c>
+      <c r="BB7">
+        <v>2000</v>
+      </c>
+      <c r="BC7">
+        <v>2000</v>
+      </c>
+      <c r="BD7">
+        <v>2000</v>
+      </c>
+      <c r="BE7">
+        <v>2000</v>
+      </c>
+      <c r="BF7">
+        <v>2000</v>
+      </c>
+      <c r="BG7">
+        <v>2000</v>
+      </c>
+      <c r="BH7">
+        <v>2000</v>
+      </c>
+      <c r="BI7">
+        <v>2000</v>
+      </c>
+      <c r="BJ7">
+        <v>2000</v>
+      </c>
+      <c r="BK7">
+        <v>2000</v>
+      </c>
+      <c r="BL7">
+        <v>2000</v>
+      </c>
+      <c r="BM7">
+        <v>2000</v>
+      </c>
+      <c r="BN7">
+        <v>2000</v>
+      </c>
+      <c r="BO7">
+        <v>2000</v>
+      </c>
+      <c r="BP7">
+        <v>2000</v>
+      </c>
+      <c r="BQ7">
+        <v>2000</v>
+      </c>
+      <c r="BR7">
+        <v>2000</v>
+      </c>
+      <c r="BS7">
+        <v>2000</v>
+      </c>
+      <c r="BT7">
+        <v>2000</v>
+      </c>
+      <c r="BU7">
+        <v>2000</v>
+      </c>
+      <c r="BV7">
+        <v>2000</v>
+      </c>
+      <c r="BW7">
+        <v>2000</v>
+      </c>
+      <c r="BX7">
+        <v>2000</v>
+      </c>
+      <c r="BY7">
+        <v>2000</v>
+      </c>
+      <c r="BZ7">
+        <v>2000</v>
+      </c>
+      <c r="CA7">
+        <v>2000</v>
+      </c>
+      <c r="CB7">
+        <v>2000</v>
+      </c>
+      <c r="CC7">
+        <v>2000</v>
+      </c>
+      <c r="CD7">
+        <v>2000</v>
+      </c>
+      <c r="CE7">
+        <v>2000</v>
+      </c>
+      <c r="CF7">
+        <v>2000</v>
+      </c>
+      <c r="CG7">
+        <v>2000</v>
+      </c>
+      <c r="CH7">
+        <v>2000</v>
+      </c>
+      <c r="CI7">
+        <v>2000</v>
+      </c>
+      <c r="CJ7">
+        <v>2000</v>
+      </c>
+      <c r="CK7">
+        <v>2000</v>
+      </c>
+      <c r="CL7">
+        <v>2000</v>
+      </c>
+      <c r="CM7">
+        <v>2000</v>
+      </c>
+      <c r="CN7">
+        <v>2000</v>
+      </c>
+      <c r="CO7">
+        <v>2000</v>
+      </c>
+      <c r="CP7">
+        <v>2000</v>
+      </c>
+      <c r="CQ7">
+        <v>2000</v>
+      </c>
+      <c r="CR7">
+        <v>2000</v>
+      </c>
+      <c r="CS7">
+        <v>2000</v>
+      </c>
+      <c r="CT7">
+        <v>2000</v>
+      </c>
+      <c r="CU7">
+        <v>2000</v>
+      </c>
+      <c r="CV7">
+        <v>2000</v>
+      </c>
+      <c r="CW7">
+        <v>2000</v>
+      </c>
+      <c r="CX7">
+        <v>2000</v>
+      </c>
+      <c r="CY7">
+        <v>2000</v>
+      </c>
+      <c r="CZ7">
+        <v>2000</v>
+      </c>
+      <c r="DA7">
+        <v>2000</v>
+      </c>
+      <c r="DB7">
+        <v>2000</v>
+      </c>
+      <c r="DC7">
+        <v>2000</v>
+      </c>
+      <c r="DD7">
+        <v>2000</v>
+      </c>
+      <c r="DE7">
+        <v>2000</v>
+      </c>
+      <c r="DF7">
+        <v>2000</v>
+      </c>
+      <c r="DG7">
+        <v>2000</v>
+      </c>
+      <c r="DH7">
+        <v>2000</v>
+      </c>
+      <c r="DI7">
+        <v>2000</v>
+      </c>
+      <c r="DJ7">
+        <v>2000</v>
+      </c>
+      <c r="DK7">
+        <v>2000</v>
+      </c>
+      <c r="DL7">
+        <v>2000</v>
+      </c>
+      <c r="DM7">
+        <v>2000</v>
+      </c>
+      <c r="DN7">
+        <v>2000</v>
+      </c>
+      <c r="DO7">
+        <v>2000</v>
+      </c>
+      <c r="DP7">
+        <v>2000</v>
+      </c>
+      <c r="DQ7">
+        <v>2000</v>
+      </c>
+      <c r="DR7">
+        <v>2000</v>
+      </c>
+      <c r="DS7">
+        <v>2000</v>
+      </c>
+      <c r="DT7">
+        <v>2000</v>
+      </c>
+      <c r="DU7">
+        <v>2000</v>
+      </c>
+      <c r="DV7">
+        <v>2000</v>
+      </c>
+      <c r="DW7">
+        <v>2000</v>
+      </c>
+      <c r="DX7">
+        <v>2000</v>
+      </c>
+      <c r="DY7">
+        <v>2000</v>
+      </c>
+      <c r="DZ7">
+        <v>2000</v>
+      </c>
+      <c r="EA7">
+        <v>2000</v>
+      </c>
+      <c r="EB7">
+        <v>2000</v>
+      </c>
+      <c r="EC7">
+        <v>2000</v>
+      </c>
+      <c r="ED7">
+        <v>2000</v>
+      </c>
+      <c r="EE7">
+        <v>2000</v>
+      </c>
+      <c r="EF7">
+        <v>2000</v>
+      </c>
+      <c r="EG7">
+        <v>2000</v>
+      </c>
+      <c r="EH7">
+        <v>2000</v>
+      </c>
+      <c r="EI7">
+        <v>2000</v>
+      </c>
+      <c r="EJ7">
+        <v>2000</v>
+      </c>
+      <c r="EK7">
+        <v>2000</v>
+      </c>
+      <c r="EL7">
+        <v>2000</v>
+      </c>
+      <c r="EM7">
+        <v>2000</v>
+      </c>
+      <c r="EN7">
+        <v>2000</v>
+      </c>
+      <c r="EO7">
+        <v>2000</v>
+      </c>
+      <c r="EP7">
+        <v>2000</v>
+      </c>
+      <c r="EQ7">
+        <v>2000</v>
+      </c>
+      <c r="ER7">
+        <v>2000</v>
+      </c>
+      <c r="ES7">
+        <v>2000</v>
+      </c>
+      <c r="ET7">
+        <v>2000</v>
+      </c>
+      <c r="EU7">
+        <v>2000</v>
+      </c>
+      <c r="EV7">
+        <v>2000</v>
+      </c>
+      <c r="EW7">
+        <v>2000</v>
+      </c>
+      <c r="EX7">
+        <v>2000</v>
+      </c>
+      <c r="EY7">
+        <v>2000</v>
+      </c>
+      <c r="EZ7">
+        <v>2000</v>
+      </c>
+      <c r="FA7">
+        <v>2000</v>
+      </c>
+      <c r="FB7">
+        <v>2000</v>
+      </c>
+      <c r="FC7">
+        <v>2000</v>
+      </c>
+      <c r="FD7">
+        <v>2000</v>
+      </c>
+      <c r="FE7">
+        <v>2000</v>
+      </c>
+      <c r="FF7">
+        <v>2000</v>
+      </c>
+      <c r="FG7">
+        <v>2000</v>
+      </c>
+      <c r="FH7">
+        <v>2000</v>
+      </c>
+      <c r="FI7">
+        <v>2000</v>
+      </c>
+      <c r="FJ7">
+        <v>2000</v>
+      </c>
+      <c r="FK7">
+        <v>2000</v>
+      </c>
+      <c r="FL7">
+        <v>2000</v>
+      </c>
+      <c r="FM7">
+        <v>2000</v>
+      </c>
+      <c r="FN7">
+        <v>2000</v>
+      </c>
+      <c r="FO7">
+        <v>2000</v>
+      </c>
+      <c r="FP7">
+        <v>2000</v>
+      </c>
+      <c r="FQ7">
+        <v>2000</v>
+      </c>
+      <c r="FR7">
+        <v>2000</v>
+      </c>
+      <c r="FS7">
+        <v>2000</v>
+      </c>
+      <c r="FT7">
+        <v>2000</v>
+      </c>
+      <c r="FU7">
+        <v>2000</v>
+      </c>
+      <c r="FV7">
+        <v>2000</v>
+      </c>
+      <c r="FW7">
+        <v>2000</v>
+      </c>
+      <c r="FX7">
+        <v>2000</v>
+      </c>
+      <c r="FY7">
+        <v>2000</v>
+      </c>
+      <c r="FZ7">
+        <v>2000</v>
+      </c>
+      <c r="GA7">
+        <v>2000</v>
+      </c>
+      <c r="GB7">
+        <v>2000</v>
+      </c>
+      <c r="GC7">
+        <v>2000</v>
+      </c>
+      <c r="GD7">
+        <v>2000</v>
+      </c>
+      <c r="GE7">
+        <v>2000</v>
+      </c>
+      <c r="GF7">
+        <v>2000</v>
+      </c>
+      <c r="GG7">
+        <v>2000</v>
+      </c>
+      <c r="GH7">
+        <v>2000</v>
+      </c>
+      <c r="GI7">
+        <v>2000</v>
+      </c>
+      <c r="GJ7">
+        <v>2000</v>
+      </c>
+      <c r="GK7">
+        <v>2000</v>
+      </c>
+      <c r="GL7">
+        <v>2000</v>
+      </c>
+      <c r="GM7">
+        <v>2000</v>
+      </c>
+      <c r="GN7">
+        <v>2000</v>
+      </c>
+      <c r="GO7">
+        <v>2000</v>
+      </c>
+      <c r="GP7">
+        <v>2000</v>
+      </c>
+      <c r="GQ7">
+        <v>2000</v>
+      </c>
+      <c r="GR7">
+        <v>2000</v>
+      </c>
+      <c r="GS7">
+        <v>2000</v>
+      </c>
+      <c r="GT7">
+        <v>2000</v>
+      </c>
+      <c r="GU7">
+        <v>2000</v>
+      </c>
+      <c r="GV7">
+        <v>2000</v>
+      </c>
+      <c r="GW7">
+        <v>2000</v>
+      </c>
+      <c r="GX7">
+        <v>2000</v>
+      </c>
+      <c r="GY7">
+        <v>2000</v>
+      </c>
+      <c r="GZ7">
+        <v>2000</v>
+      </c>
+      <c r="HA7">
+        <v>2000</v>
+      </c>
+      <c r="HB7">
+        <v>2000</v>
+      </c>
+      <c r="HC7">
+        <v>2000</v>
+      </c>
+      <c r="HD7">
+        <v>2000</v>
+      </c>
+      <c r="HE7">
+        <v>2000</v>
+      </c>
+      <c r="HF7">
+        <v>2000</v>
+      </c>
+      <c r="HG7">
+        <v>2000</v>
+      </c>
+      <c r="HH7">
+        <v>2000</v>
+      </c>
+      <c r="HI7">
         <v>2000</v>
       </c>
     </row>
@@ -4955,652 +4954,652 @@
       <c r="A8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="N8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="P8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="R8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="S8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="T8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="U8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="V8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="W8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="X8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AS8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AV8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AW8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AX8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AY8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AZ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BA8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BB8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BC8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BD8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BE8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BF8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BG8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BH8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BI8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BJ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BK8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BL8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BM8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BN8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BO8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BP8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BQ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BR8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BS8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BT8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BU8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BV8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BW8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BX8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BY8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="BZ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CA8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CB8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CC8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CD8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CE8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CF8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CG8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CH8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CI8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CJ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CK8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CL8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CM8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CN8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CO8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CP8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CQ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CR8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CS8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CT8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CU8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CV8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CW8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CX8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CY8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="CZ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DA8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DB8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DC8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DD8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DE8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DF8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DG8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DH8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DI8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DJ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DK8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DL8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DM8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DN8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DO8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DP8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DQ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DR8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DS8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DT8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DU8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DV8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DW8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DX8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DY8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="DZ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EA8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EB8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EC8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ED8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EE8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EF8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EG8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EH8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EI8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EJ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EK8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EL8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EM8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EN8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EO8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EP8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EQ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ER8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ES8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="ET8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EU8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EV8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EW8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EX8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EY8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="EZ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FA8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FB8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FC8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FD8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FE8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FF8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FG8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FH8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FI8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FJ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FK8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FL8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FM8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FN8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FO8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FP8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FQ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FR8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FS8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FT8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FU8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FV8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FW8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FX8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FY8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="FZ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GA8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GB8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GC8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GD8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GE8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GF8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GG8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GH8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GI8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GJ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GK8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GL8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GM8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GN8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GO8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GP8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GQ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GR8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GS8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GT8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GU8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GV8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GW8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GX8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GY8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="GZ8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HA8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HB8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HC8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HD8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HE8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HF8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HG8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HH8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="HI8" s="2">
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <v>2000</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+      <c r="H8">
+        <v>2000</v>
+      </c>
+      <c r="I8">
+        <v>2000</v>
+      </c>
+      <c r="J8">
+        <v>2000</v>
+      </c>
+      <c r="K8">
+        <v>2000</v>
+      </c>
+      <c r="L8">
+        <v>2000</v>
+      </c>
+      <c r="M8">
+        <v>2000</v>
+      </c>
+      <c r="N8">
+        <v>2000</v>
+      </c>
+      <c r="O8">
+        <v>2000</v>
+      </c>
+      <c r="P8">
+        <v>2000</v>
+      </c>
+      <c r="Q8">
+        <v>2000</v>
+      </c>
+      <c r="R8">
+        <v>2000</v>
+      </c>
+      <c r="S8">
+        <v>2000</v>
+      </c>
+      <c r="T8">
+        <v>2000</v>
+      </c>
+      <c r="U8">
+        <v>2000</v>
+      </c>
+      <c r="V8">
+        <v>2000</v>
+      </c>
+      <c r="W8">
+        <v>2000</v>
+      </c>
+      <c r="X8">
+        <v>2000</v>
+      </c>
+      <c r="Y8">
+        <v>2000</v>
+      </c>
+      <c r="Z8">
+        <v>2000</v>
+      </c>
+      <c r="AA8">
+        <v>2000</v>
+      </c>
+      <c r="AB8">
+        <v>2000</v>
+      </c>
+      <c r="AC8">
+        <v>2000</v>
+      </c>
+      <c r="AD8">
+        <v>2000</v>
+      </c>
+      <c r="AE8">
+        <v>2000</v>
+      </c>
+      <c r="AF8">
+        <v>2000</v>
+      </c>
+      <c r="AG8">
+        <v>2000</v>
+      </c>
+      <c r="AH8">
+        <v>2000</v>
+      </c>
+      <c r="AI8">
+        <v>2000</v>
+      </c>
+      <c r="AJ8">
+        <v>2000</v>
+      </c>
+      <c r="AK8">
+        <v>2000</v>
+      </c>
+      <c r="AL8">
+        <v>2000</v>
+      </c>
+      <c r="AM8">
+        <v>2000</v>
+      </c>
+      <c r="AN8">
+        <v>2000</v>
+      </c>
+      <c r="AO8">
+        <v>2000</v>
+      </c>
+      <c r="AP8">
+        <v>2000</v>
+      </c>
+      <c r="AQ8">
+        <v>2000</v>
+      </c>
+      <c r="AR8">
+        <v>2000</v>
+      </c>
+      <c r="AS8">
+        <v>2000</v>
+      </c>
+      <c r="AT8">
+        <v>2000</v>
+      </c>
+      <c r="AU8">
+        <v>2000</v>
+      </c>
+      <c r="AV8">
+        <v>2000</v>
+      </c>
+      <c r="AW8">
+        <v>2000</v>
+      </c>
+      <c r="AX8">
+        <v>2000</v>
+      </c>
+      <c r="AY8">
+        <v>2000</v>
+      </c>
+      <c r="AZ8">
+        <v>2000</v>
+      </c>
+      <c r="BA8">
+        <v>2000</v>
+      </c>
+      <c r="BB8">
+        <v>2000</v>
+      </c>
+      <c r="BC8">
+        <v>2000</v>
+      </c>
+      <c r="BD8">
+        <v>2000</v>
+      </c>
+      <c r="BE8">
+        <v>2000</v>
+      </c>
+      <c r="BF8">
+        <v>2000</v>
+      </c>
+      <c r="BG8">
+        <v>2000</v>
+      </c>
+      <c r="BH8">
+        <v>2000</v>
+      </c>
+      <c r="BI8">
+        <v>2000</v>
+      </c>
+      <c r="BJ8">
+        <v>2000</v>
+      </c>
+      <c r="BK8">
+        <v>2000</v>
+      </c>
+      <c r="BL8">
+        <v>2000</v>
+      </c>
+      <c r="BM8">
+        <v>2000</v>
+      </c>
+      <c r="BN8">
+        <v>2000</v>
+      </c>
+      <c r="BO8">
+        <v>2000</v>
+      </c>
+      <c r="BP8">
+        <v>2000</v>
+      </c>
+      <c r="BQ8">
+        <v>2000</v>
+      </c>
+      <c r="BR8">
+        <v>2000</v>
+      </c>
+      <c r="BS8">
+        <v>2000</v>
+      </c>
+      <c r="BT8">
+        <v>2000</v>
+      </c>
+      <c r="BU8">
+        <v>2000</v>
+      </c>
+      <c r="BV8">
+        <v>2000</v>
+      </c>
+      <c r="BW8">
+        <v>2000</v>
+      </c>
+      <c r="BX8">
+        <v>2000</v>
+      </c>
+      <c r="BY8">
+        <v>2000</v>
+      </c>
+      <c r="BZ8">
+        <v>2000</v>
+      </c>
+      <c r="CA8">
+        <v>2000</v>
+      </c>
+      <c r="CB8">
+        <v>2000</v>
+      </c>
+      <c r="CC8">
+        <v>2000</v>
+      </c>
+      <c r="CD8">
+        <v>2000</v>
+      </c>
+      <c r="CE8">
+        <v>2000</v>
+      </c>
+      <c r="CF8">
+        <v>2000</v>
+      </c>
+      <c r="CG8">
+        <v>2000</v>
+      </c>
+      <c r="CH8">
+        <v>2000</v>
+      </c>
+      <c r="CI8">
+        <v>2000</v>
+      </c>
+      <c r="CJ8">
+        <v>2000</v>
+      </c>
+      <c r="CK8">
+        <v>2000</v>
+      </c>
+      <c r="CL8">
+        <v>2000</v>
+      </c>
+      <c r="CM8">
+        <v>2000</v>
+      </c>
+      <c r="CN8">
+        <v>2000</v>
+      </c>
+      <c r="CO8">
+        <v>2000</v>
+      </c>
+      <c r="CP8">
+        <v>2000</v>
+      </c>
+      <c r="CQ8">
+        <v>2000</v>
+      </c>
+      <c r="CR8">
+        <v>2000</v>
+      </c>
+      <c r="CS8">
+        <v>2000</v>
+      </c>
+      <c r="CT8">
+        <v>2000</v>
+      </c>
+      <c r="CU8">
+        <v>2000</v>
+      </c>
+      <c r="CV8">
+        <v>2000</v>
+      </c>
+      <c r="CW8">
+        <v>2000</v>
+      </c>
+      <c r="CX8">
+        <v>2000</v>
+      </c>
+      <c r="CY8">
+        <v>2000</v>
+      </c>
+      <c r="CZ8">
+        <v>2000</v>
+      </c>
+      <c r="DA8">
+        <v>2000</v>
+      </c>
+      <c r="DB8">
+        <v>2000</v>
+      </c>
+      <c r="DC8">
+        <v>2000</v>
+      </c>
+      <c r="DD8">
+        <v>2000</v>
+      </c>
+      <c r="DE8">
+        <v>2000</v>
+      </c>
+      <c r="DF8">
+        <v>2000</v>
+      </c>
+      <c r="DG8">
+        <v>2000</v>
+      </c>
+      <c r="DH8">
+        <v>2000</v>
+      </c>
+      <c r="DI8">
+        <v>2000</v>
+      </c>
+      <c r="DJ8">
+        <v>2000</v>
+      </c>
+      <c r="DK8">
+        <v>2000</v>
+      </c>
+      <c r="DL8">
+        <v>2000</v>
+      </c>
+      <c r="DM8">
+        <v>2000</v>
+      </c>
+      <c r="DN8">
+        <v>2000</v>
+      </c>
+      <c r="DO8">
+        <v>2000</v>
+      </c>
+      <c r="DP8">
+        <v>2000</v>
+      </c>
+      <c r="DQ8">
+        <v>2000</v>
+      </c>
+      <c r="DR8">
+        <v>2000</v>
+      </c>
+      <c r="DS8">
+        <v>2000</v>
+      </c>
+      <c r="DT8">
+        <v>2000</v>
+      </c>
+      <c r="DU8">
+        <v>2000</v>
+      </c>
+      <c r="DV8">
+        <v>2000</v>
+      </c>
+      <c r="DW8">
+        <v>2000</v>
+      </c>
+      <c r="DX8">
+        <v>2000</v>
+      </c>
+      <c r="DY8">
+        <v>2000</v>
+      </c>
+      <c r="DZ8">
+        <v>2000</v>
+      </c>
+      <c r="EA8">
+        <v>2000</v>
+      </c>
+      <c r="EB8">
+        <v>2000</v>
+      </c>
+      <c r="EC8">
+        <v>2000</v>
+      </c>
+      <c r="ED8">
+        <v>2000</v>
+      </c>
+      <c r="EE8">
+        <v>2000</v>
+      </c>
+      <c r="EF8">
+        <v>2000</v>
+      </c>
+      <c r="EG8">
+        <v>2000</v>
+      </c>
+      <c r="EH8">
+        <v>2000</v>
+      </c>
+      <c r="EI8">
+        <v>2000</v>
+      </c>
+      <c r="EJ8">
+        <v>2000</v>
+      </c>
+      <c r="EK8">
+        <v>2000</v>
+      </c>
+      <c r="EL8">
+        <v>2000</v>
+      </c>
+      <c r="EM8">
+        <v>2000</v>
+      </c>
+      <c r="EN8">
+        <v>2000</v>
+      </c>
+      <c r="EO8">
+        <v>2000</v>
+      </c>
+      <c r="EP8">
+        <v>2000</v>
+      </c>
+      <c r="EQ8">
+        <v>2000</v>
+      </c>
+      <c r="ER8">
+        <v>2000</v>
+      </c>
+      <c r="ES8">
+        <v>2000</v>
+      </c>
+      <c r="ET8">
+        <v>2000</v>
+      </c>
+      <c r="EU8">
+        <v>2000</v>
+      </c>
+      <c r="EV8">
+        <v>2000</v>
+      </c>
+      <c r="EW8">
+        <v>2000</v>
+      </c>
+      <c r="EX8">
+        <v>2000</v>
+      </c>
+      <c r="EY8">
+        <v>2000</v>
+      </c>
+      <c r="EZ8">
+        <v>2000</v>
+      </c>
+      <c r="FA8">
+        <v>2000</v>
+      </c>
+      <c r="FB8">
+        <v>2000</v>
+      </c>
+      <c r="FC8">
+        <v>2000</v>
+      </c>
+      <c r="FD8">
+        <v>2000</v>
+      </c>
+      <c r="FE8">
+        <v>2000</v>
+      </c>
+      <c r="FF8">
+        <v>2000</v>
+      </c>
+      <c r="FG8">
+        <v>2000</v>
+      </c>
+      <c r="FH8">
+        <v>2000</v>
+      </c>
+      <c r="FI8">
+        <v>2000</v>
+      </c>
+      <c r="FJ8">
+        <v>2000</v>
+      </c>
+      <c r="FK8">
+        <v>2000</v>
+      </c>
+      <c r="FL8">
+        <v>2000</v>
+      </c>
+      <c r="FM8">
+        <v>2000</v>
+      </c>
+      <c r="FN8">
+        <v>2000</v>
+      </c>
+      <c r="FO8">
+        <v>2000</v>
+      </c>
+      <c r="FP8">
+        <v>2000</v>
+      </c>
+      <c r="FQ8">
+        <v>2000</v>
+      </c>
+      <c r="FR8">
+        <v>2000</v>
+      </c>
+      <c r="FS8">
+        <v>2000</v>
+      </c>
+      <c r="FT8">
+        <v>2000</v>
+      </c>
+      <c r="FU8">
+        <v>2000</v>
+      </c>
+      <c r="FV8">
+        <v>2000</v>
+      </c>
+      <c r="FW8">
+        <v>2000</v>
+      </c>
+      <c r="FX8">
+        <v>2000</v>
+      </c>
+      <c r="FY8">
+        <v>2000</v>
+      </c>
+      <c r="FZ8">
+        <v>2000</v>
+      </c>
+      <c r="GA8">
+        <v>2000</v>
+      </c>
+      <c r="GB8">
+        <v>2000</v>
+      </c>
+      <c r="GC8">
+        <v>2000</v>
+      </c>
+      <c r="GD8">
+        <v>2000</v>
+      </c>
+      <c r="GE8">
+        <v>2000</v>
+      </c>
+      <c r="GF8">
+        <v>2000</v>
+      </c>
+      <c r="GG8">
+        <v>2000</v>
+      </c>
+      <c r="GH8">
+        <v>2000</v>
+      </c>
+      <c r="GI8">
+        <v>2000</v>
+      </c>
+      <c r="GJ8">
+        <v>2000</v>
+      </c>
+      <c r="GK8">
+        <v>2000</v>
+      </c>
+      <c r="GL8">
+        <v>2000</v>
+      </c>
+      <c r="GM8">
+        <v>2000</v>
+      </c>
+      <c r="GN8">
+        <v>2000</v>
+      </c>
+      <c r="GO8">
+        <v>2000</v>
+      </c>
+      <c r="GP8">
+        <v>2000</v>
+      </c>
+      <c r="GQ8">
+        <v>2000</v>
+      </c>
+      <c r="GR8">
+        <v>2000</v>
+      </c>
+      <c r="GS8">
+        <v>2000</v>
+      </c>
+      <c r="GT8">
+        <v>2000</v>
+      </c>
+      <c r="GU8">
+        <v>2000</v>
+      </c>
+      <c r="GV8">
+        <v>2000</v>
+      </c>
+      <c r="GW8">
+        <v>2000</v>
+      </c>
+      <c r="GX8">
+        <v>2000</v>
+      </c>
+      <c r="GY8">
+        <v>2000</v>
+      </c>
+      <c r="GZ8">
+        <v>2000</v>
+      </c>
+      <c r="HA8">
+        <v>2000</v>
+      </c>
+      <c r="HB8">
+        <v>2000</v>
+      </c>
+      <c r="HC8">
+        <v>2000</v>
+      </c>
+      <c r="HD8">
+        <v>2000</v>
+      </c>
+      <c r="HE8">
+        <v>2000</v>
+      </c>
+      <c r="HF8">
+        <v>2000</v>
+      </c>
+      <c r="HG8">
+        <v>2000</v>
+      </c>
+      <c r="HH8">
+        <v>2000</v>
+      </c>
+      <c r="HI8">
         <v>2000</v>
       </c>
     </row>
